--- a/测试模型例子.xlsx
+++ b/测试模型例子.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>http://zq.win007.com/analysis/1876869cn.htm</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>盘口相同，水位上差一级，水位从高到低有走热趋势，稍符合低开诱上，可进行盘型优化</t>
+  </si>
+  <si>
+    <t>http://zq.win007.com/analysis/1873089.htm</t>
+  </si>
+  <si>
+    <t>浅开诱上模型</t>
+  </si>
+  <si>
+    <t>正确，因初盘水位过高，其实有1.5级拉动，概率稍降低</t>
   </si>
 </sst>
 </file>
@@ -57,8 +66,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -93,14 +102,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -111,22 +172,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,22 +203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,51 +223,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,67 +233,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,115 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +424,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,17 +456,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,9 +477,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,11 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,21 +524,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,130 +547,130 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,13 +1006,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="46.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1089,13 +1098,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" ht="27" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://zq.win007.com/analysis/1876869cn.htm"/>
     <hyperlink ref="A3" r:id="rId2" display="http://zq.win007.com/analysis/1896812.htm"/>
     <hyperlink ref="A4" r:id="rId3" display="http://zq.win007.com/analysis/1900398.htm"/>
     <hyperlink ref="A5" r:id="rId4" display="http://zq.win007.com/analysis/1886594.htm"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://zq.win007.com/analysis/1886609.htm"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://zq.win007.com/analysis/1886609.htm" tooltip="http://zq.win007.com/analysis/1886609.htm"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://zq.win007.com/analysis/1873089.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/测试模型例子.xlsx
+++ b/测试模型例子.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>http://zq.win007.com/analysis/1876869cn.htm</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>正确，因初盘水位过高，其实有1.5级拉动，概率稍降低</t>
+  </si>
+  <si>
+    <t>http://zq.win007.com/analysis/1837343.htm</t>
   </si>
 </sst>
 </file>
@@ -66,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -95,6 +98,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -102,6 +113,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -109,8 +128,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,7 +182,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,78 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,175 +242,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,24 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,17 +462,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -510,6 +484,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="46.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1115,6 +1118,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://zq.win007.com/analysis/1876869cn.htm"/>
@@ -1123,6 +1143,7 @@
     <hyperlink ref="A5" r:id="rId4" display="http://zq.win007.com/analysis/1886594.htm"/>
     <hyperlink ref="A6" r:id="rId5" display="http://zq.win007.com/analysis/1886609.htm" tooltip="http://zq.win007.com/analysis/1886609.htm"/>
     <hyperlink ref="A7" r:id="rId6" display="http://zq.win007.com/analysis/1873089.htm"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://zq.win007.com/analysis/1837343.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
